--- a/database/Export/Tabelas Finais/POF 2017 TBL_4/Tabela4.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_4/Tabela4.xlsx
@@ -386,77 +386,77 @@
         </is>
       </c>
       <c r="B2">
-        <v>32874.2</v>
+        <v>32631.42</v>
       </c>
       <c r="C2">
-        <v>0.5469366510609766</v>
+        <v>0.5428974567948171</v>
       </c>
       <c r="D2">
-        <v>4.306600529297032</v>
+        <v>4.274795756055319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Isotônico e Energético</t>
+          <t>Bebida Adoçada</t>
         </is>
       </c>
       <c r="B3">
-        <v>2524.46</v>
+        <v>51545.47</v>
       </c>
       <c r="C3">
-        <v>0.04200010032601229</v>
+        <v>0.8575754463732666</v>
       </c>
       <c r="D3">
-        <v>0.3307104286093407</v>
+        <v>6.752582523220772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bebida Adoçada</t>
+          <t>Bebida Adoçada a Base de Leite</t>
         </is>
       </c>
       <c r="B4">
-        <v>51871.09</v>
+        <v>86132.47</v>
       </c>
       <c r="C4">
-        <v>0.8629928713545125</v>
+        <v>1.43300839836133</v>
       </c>
       <c r="D4">
-        <v>6.795239538885022</v>
+        <v>11.28356403780657</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bebida Adoçada a Base de Leite</t>
+          <t>Café e Chá</t>
         </is>
       </c>
       <c r="B5">
-        <v>86245.25</v>
+        <v>162191.16</v>
       </c>
       <c r="C5">
-        <v>1.434884748675761</v>
+        <v>2.698416687922293</v>
       </c>
       <c r="D5">
-        <v>11.29833849338858</v>
+        <v>21.24743827996726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Café e Chá</t>
+          <t>Isotônico e Energético</t>
         </is>
       </c>
       <c r="B6">
-        <v>161195.21</v>
+        <v>2511.94</v>
       </c>
       <c r="C6">
-        <v>2.681846807662874</v>
+        <v>0.04179180181619963</v>
       </c>
       <c r="D6">
-        <v>21.1169663963274</v>
+        <v>0.3290702780162677</v>
       </c>
     </row>
     <row r="7">
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>258906.78</v>
+        <v>268390.46</v>
       </c>
       <c r="C7">
-        <v>4.307499716804699</v>
+        <v>4.465282177790335</v>
       </c>
       <c r="D7">
-        <v>33.91742082808374</v>
+        <v>35.15980608179893</v>
       </c>
     </row>
     <row r="8">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>109657.16</v>
+        <v>109591.66</v>
       </c>
       <c r="C8">
-        <v>1.824394809767468</v>
+        <v>1.82330506916102</v>
       </c>
       <c r="D8">
-        <v>14.36535591123767</v>
+        <v>14.35677525118605</v>
       </c>
     </row>
     <row r="9">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>2427.17</v>
+        <v>2416.94</v>
       </c>
       <c r="C9">
-        <v>0.04038146118706069</v>
+        <v>0.0402112620053208</v>
       </c>
       <c r="D9">
-        <v>0.3179652008777059</v>
+        <v>0.3166250458803308</v>
       </c>
     </row>
     <row r="10">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>47140.27</v>
+        <v>47933.02</v>
       </c>
       <c r="C10">
-        <v>0.784284983479757</v>
+        <v>0.7974741722700116</v>
       </c>
       <c r="D10">
-        <v>6.175490558955199</v>
+        <v>6.279342746068505</v>
       </c>
     </row>
     <row r="11">

--- a/database/Export/Tabelas Finais/POF 2017 TBL_4/Tabela4.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_4/Tabela4.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>32631.42</v>
+        <v>120032460.91</v>
       </c>
       <c r="C2">
-        <v>0.5428974567948171</v>
+        <v>1997.011400694861</v>
       </c>
       <c r="D2">
-        <v>4.274795756055319</v>
+        <v>1.826766761505509</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>51545.47</v>
+        <v>700051345.17</v>
       </c>
       <c r="C3">
-        <v>0.8575754463732666</v>
+        <v>11646.93706000486</v>
       </c>
       <c r="D3">
-        <v>6.752582523220772</v>
+        <v>10.65403907416878</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>86132.47</v>
+        <v>960085812.38</v>
       </c>
       <c r="C4">
-        <v>1.43300839836133</v>
+        <v>15973.19840343717</v>
       </c>
       <c r="D4">
-        <v>11.28356403780657</v>
+        <v>14.61148790045913</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>162191.16</v>
+        <v>1460161547.94</v>
       </c>
       <c r="C5">
-        <v>2.698416687922293</v>
+        <v>24293.08901930132</v>
       </c>
       <c r="D5">
-        <v>21.24743827996726</v>
+        <v>22.22211026903144</v>
       </c>
     </row>
     <row r="6">
@@ -456,7 +456,7 @@
         <v>0.04179180181619963</v>
       </c>
       <c r="D6">
-        <v>0.3290702780162677</v>
+        <v>3.82290629060481e-005</v>
       </c>
     </row>
     <row r="7">
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>268390.46</v>
+        <v>2330267461.92</v>
       </c>
       <c r="C7">
-        <v>4.465282177790335</v>
+        <v>38769.26835326447</v>
       </c>
       <c r="D7">
-        <v>35.15980608179893</v>
+        <v>35.46419953886507</v>
       </c>
     </row>
     <row r="8">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>109591.66</v>
+        <v>650109268.54</v>
       </c>
       <c r="C8">
-        <v>1.82330506916102</v>
+        <v>10816.03768788195</v>
       </c>
       <c r="D8">
-        <v>14.35677525118605</v>
+        <v>9.893973631066258</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>0.0402112620053208</v>
       </c>
       <c r="D9">
-        <v>0.3166250458803308</v>
+        <v>3.678326365285154e-005</v>
       </c>
     </row>
     <row r="10">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>47933.02</v>
+        <v>350047242.78</v>
       </c>
       <c r="C10">
-        <v>0.7974741722700116</v>
+        <v>5823.827398970069</v>
       </c>
       <c r="D10">
-        <v>6.279342746068505</v>
+        <v>5.327347812577255</v>
       </c>
     </row>
     <row r="11">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>763344.54</v>
+        <v>6570760068.520001</v>
       </c>
       <c r="C11">
-        <v>12.69996247249459</v>
+        <v>109319.4513266185</v>
       </c>
       <c r="D11">
         <v>100</v>

--- a/database/Export/Tabelas Finais/POF 2017 TBL_4/Tabela4.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_4/Tabela4.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>120032460.91</v>
+        <v>32702.29</v>
       </c>
       <c r="C2">
-        <v>1997.011400694861</v>
+        <v>0.5367280826933507</v>
       </c>
       <c r="D2">
-        <v>1.826766761505509</v>
+        <v>4.362677757497861</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>700051345.17</v>
+        <v>51667.29</v>
       </c>
       <c r="C3">
-        <v>11646.93706000486</v>
+        <v>0.8479921589485425</v>
       </c>
       <c r="D3">
-        <v>10.65403907416878</v>
+        <v>6.892720261278083</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>960085812.38</v>
+        <v>85918.44</v>
       </c>
       <c r="C4">
-        <v>15973.19840343717</v>
+        <v>1.410140989184662</v>
       </c>
       <c r="D4">
-        <v>14.61148790045913</v>
+        <v>11.46202504922177</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>1460161547.94</v>
+        <v>160546.29</v>
       </c>
       <c r="C5">
-        <v>24293.08901930132</v>
+        <v>2.634974566467078</v>
       </c>
       <c r="D5">
-        <v>22.22211026903144</v>
+        <v>21.41781900997762</v>
       </c>
     </row>
     <row r="6">
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>2511.94</v>
+        <v>2524.46</v>
       </c>
       <c r="C6">
-        <v>0.04179180181619963</v>
+        <v>0.04143283469249573</v>
       </c>
       <c r="D6">
-        <v>3.82290629060481e-005</v>
+        <v>0.3367778064378075</v>
       </c>
     </row>
     <row r="7">
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>2330267461.92</v>
+        <v>258032.54</v>
       </c>
       <c r="C7">
-        <v>38769.26835326447</v>
+        <v>4.234972855622506</v>
       </c>
       <c r="D7">
-        <v>35.46419953886507</v>
+        <v>34.42305792556659</v>
       </c>
     </row>
     <row r="8">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>650109268.54</v>
+        <v>109330.34</v>
       </c>
       <c r="C8">
-        <v>10816.03768788195</v>
+        <v>1.794390049394466</v>
       </c>
       <c r="D8">
-        <v>9.893973631066258</v>
+        <v>14.58531015833077</v>
       </c>
     </row>
     <row r="9">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>2416.94</v>
+        <v>2427.17</v>
       </c>
       <c r="C9">
-        <v>0.0402112620053208</v>
+        <v>0.03983605736695565</v>
       </c>
       <c r="D9">
-        <v>3.678326365285154e-005</v>
+        <v>0.3237987484260608</v>
       </c>
     </row>
     <row r="10">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>350047242.78</v>
+        <v>46443.33</v>
       </c>
       <c r="C10">
-        <v>5823.827398970069</v>
+        <v>0.7622536362069622</v>
       </c>
       <c r="D10">
-        <v>5.327347812577255</v>
+        <v>6.195813283263439</v>
       </c>
     </row>
     <row r="11">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>6570760068.520001</v>
+        <v>749592.15</v>
       </c>
       <c r="C11">
-        <v>109319.4513266185</v>
+        <v>12.30272123057702</v>
       </c>
       <c r="D11">
         <v>100</v>
